--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value690.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value690.xlsx
@@ -354,7 +354,7 @@
         <v>2.994587644674819</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>0.3884975744567822</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value690.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value690.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.921392940852673</v>
+        <v>1.405737400054932</v>
       </c>
       <c r="B1">
-        <v>2.994587644674819</v>
+        <v>1.472282767295837</v>
       </c>
       <c r="C1">
+        <v>1.662174105644226</v>
+      </c>
+      <c r="D1">
+        <v>2.590127468109131</v>
+      </c>
+      <c r="E1">
         <v>15</v>
-      </c>
-      <c r="D1">
-        <v>0.3884975744567822</v>
-      </c>
-      <c r="E1">
-        <v>0.1915727588436852</v>
       </c>
     </row>
   </sheetData>
